--- a/WeeklyTimesheet.xlsx
+++ b/WeeklyTimesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanchit.aggarwal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java-spring-boot-project\Angular-SpringBoot-Timesheet-Project\Employee-Timesheet-System\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF032642-3706-4E44-995F-996C15A41F59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCD02A5-D5CB-4E18-B98B-BE8B6ADE1473}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Client Manager Name</t>
   </si>
@@ -60,34 +60,49 @@
     <t>Total hours for the week</t>
   </si>
   <si>
-    <t>tanuj Sir</t>
+    <t>Tanuj Kathuria</t>
   </si>
   <si>
     <t>Teach For America</t>
   </si>
   <si>
-    <t>7/1/2018-7/7/2018</t>
-  </si>
-  <si>
-    <t>R&amp;dxyz</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Testingtesting on Tfa</t>
-  </si>
-  <si>
-    <t>djsir@gmail.com</t>
-  </si>
-  <si>
-    <t>sulekha@gmail.com</t>
+    <t>7/23/2018-7/29/2018</t>
+  </si>
+  <si>
+    <t>23-Jul</t>
+  </si>
+  <si>
+    <t>24-Jul</t>
+  </si>
+  <si>
+    <t>25-Jul</t>
+  </si>
+  <si>
+    <t>26-Jul</t>
+  </si>
+  <si>
+    <t>27-Jul</t>
+  </si>
+  <si>
+    <t>28-Jul</t>
+  </si>
+  <si>
+    <t>29-Jul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development ( ss ) </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Offshore Consultant's Project Manager's Name :Dhananjay Kumar</t>
+  </si>
+  <si>
+    <t>Omar Colon</t>
   </si>
 </sst>
 </file>
@@ -411,6 +426,114 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -521,114 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -971,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:L27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -983,198 +998,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="67"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="37"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
-      <c r="B10" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="9"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1187,8 +1200,8 @@
     </row>
     <row r="12" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="82"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1201,8 +1214,8 @@
     </row>
     <row r="13" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="84"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1215,8 +1228,8 @@
     </row>
     <row r="14" spans="1:12" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="82"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1229,8 +1242,8 @@
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1243,8 +1256,8 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1257,8 +1270,8 @@
     </row>
     <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1270,178 +1283,175 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="38"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="E18" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>1.0</v>
+      </c>
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48">
-        <f>SUM(E18:K18)</f>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+    </row>
+    <row r="20" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="77"/>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="80"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="64"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="51"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="52"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-    </row>
-    <row r="20" spans="1:12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44"/>
-    </row>
-    <row r="22" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="28"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="34"/>
-    </row>
-    <row r="25" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="B25" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="55"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="58"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:L6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A6:D6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="B25:L27"/>
@@ -1453,6 +1463,22 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:L19"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:L6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
